--- a/examples/Book1.xlsx
+++ b/examples/Book1.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\dive\examples\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{786C99DB-CC5D-4DB9-A421-A258EC1E3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{1666A715-0CD7-49CC-A3F5-A4EC69CE07F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Mass" sheetId="2" r:id="rId2"/>
+    <sheet name="Stiffness" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>P</t>
   </si>
@@ -51,11 +46,86 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t xml:space="preserve">   6.66667e-01   1.66667e-01   1.66667e-01  -9.88792e-17  -1.66667e-01  -1.66667e-01  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.30972e-16   1.66667e-01   8.33333e-02  -1.37477e-16   8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.66667e-01   6.66667e-01   1.66667e-01   1.66667e-01  -9.88792e-17   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.30972e-16  -1.66667e-01   8.33333e-02  -1.37477e-16   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.66667e-01   1.66667e-01   6.66667e-01   1.66667e-01   8.33333e-02  -1.02349e-16   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.13624e-16  -1.66667e-01  -1.66667e-01  -1.09288e-16  -1.66667e-01  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -9.88792e-17   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01  -1.66667e-01  -9.36751e-17  -1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.21431e-16  -8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01  -9.88792e-17   8.33333e-02  -1.66667e-01   6.66667e-01   1.66667e-01   1.66667e-01  -9.36751e-17  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.21431e-16   1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01   8.33333e-02  -1.02349e-16  -1.66667e-01   1.66667e-01   6.66667e-01  -8.33333e-02   1.66667e-01  -9.36751e-17  -8.33333e-02   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01  -1.66667e-01  -1.04083e-16   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01  -1.66667e-01   8.33333e-02  -9.36751e-17   1.66667e-01  -8.33333e-02   6.66667e-01   1.66667e-01  -1.66667e-01  -1.11022e-16  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.45717e-16   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02   1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -9.36751e-17   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.11022e-16  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.45717e-16  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -9.36751e-17  -1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01  -8.33333e-02  -1.24900e-16   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.66667e-01   1.66667e-01   1.66667e-01  -1.45717e-16   1.66667e-01   8.33333e-02  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.30972e-16  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.11022e-16   1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.52656e-16  -8.33333e-02   1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.66667e-01  -1.30972e-16   1.66667e-01   1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.11022e-16  -8.33333e-02  -1.66667e-01   6.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.52656e-16  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.33333e-02  -1.66667e-01  -1.13624e-16   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.24900e-16   1.66667e-01  -1.66667e-01   6.66667e-01  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01   1.66667e-01  -1.38778e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.37477e-16   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02   6.66667e-01   1.66667e-01  -1.66667e-01  -1.31839e-16  -1.66667e-01   1.66667e-01  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.52656e-16   1.66667e-01  -8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.33333e-02  -1.37477e-16  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.31839e-16  -8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.52656e-16   1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.66667e-01   1.66667e-01  -1.09288e-16   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.66667e-01  -1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01  -8.33333e-02  -1.24900e-16  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.42247e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.21431e-16  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.31839e-16   1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.59595e-16  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.21431e-16  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.31839e-16  -8.33333e-02  -1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.59595e-16   1.66667e-01   1.66667e-01  -1.66667e-01   8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01   1.66667e-01  -1.04083e-16  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.24900e-16   1.66667e-01  -1.66667e-01   6.66667e-01   8.33333e-02  -1.66667e-01  -1.66533e-16   8.33333e-02  -8.33333e-02  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.45717e-16   8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.59595e-16   1.66667e-01   8.33333e-02   6.66667e-01   1.66667e-01   1.66667e-01  -7.63278e-17  -1.66667e-01  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.45717e-16   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.59595e-16  -1.66667e-01   1.66667e-01   6.66667e-01   1.66667e-01   1.66667e-01  -7.63278e-17   8.33333e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01  -1.66667e-01  -1.66667e-01  -1.45717e-16  -1.66667e-01  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.66533e-16   1.66667e-01   1.66667e-01   6.66667e-01   1.66667e-01   8.33333e-02  -5.55112e-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.52656e-16  -8.33333e-02  -1.66667e-01  -1.52656e-16  -1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -7.63278e-17   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01  -1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.52656e-16   1.66667e-01   1.66667e-01  -1.52656e-16  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -7.63278e-17   8.33333e-02  -1.66667e-01   6.66667e-01   1.66667e-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01  -1.66667e-01  -1.38778e-16  -8.33333e-02   1.66667e-01  -1.42247e-16  -8.33333e-02   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -5.55112e-17  -1.66667e-01   1.66667e-01   6.66667e-01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,23 +465,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AE7C33-68D8-4C4F-90CF-760D83382B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.35">
@@ -487,16 +558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D345E0FF-BAC8-4C3C-A487-A6735B7A9AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y51" sqref="B28:Y51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.296296</v>
       </c>
@@ -570,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -644,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -718,7 +789,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.148148</v>
       </c>
@@ -792,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0</v>
       </c>
@@ -866,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -940,7 +1011,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -1014,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1088,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1162,7 +1233,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.148148</v>
       </c>
@@ -1236,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1310,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1384,7 +1455,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.148148</v>
       </c>
@@ -1458,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1532,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1606,7 +1677,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -1680,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1754,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1828,7 +1899,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3.7037E-2</v>
       </c>
@@ -1902,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1976,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2050,7 +2121,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -2124,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2198,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2272,7 +2343,7 @@
         <v>0.296296</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>0.296296</v>
       </c>
@@ -2346,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>0</v>
       </c>
@@ -2420,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
@@ -2494,7 +2565,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0.148148</v>
       </c>
@@ -2568,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0</v>
       </c>
@@ -2642,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2716,7 +2787,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -2790,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
@@ -2864,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0</v>
       </c>
@@ -2938,7 +3009,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0.148148</v>
       </c>
@@ -3012,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0</v>
       </c>
@@ -3086,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>0</v>
       </c>
@@ -3160,7 +3231,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0.148148</v>
       </c>
@@ -3234,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0</v>
       </c>
@@ -3308,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>0</v>
       </c>
@@ -3382,7 +3453,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -3456,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0</v>
       </c>
@@ -3530,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0</v>
       </c>
@@ -3604,7 +3675,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>3.7037E-2</v>
       </c>
@@ -3678,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>0</v>
       </c>
@@ -3752,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0</v>
       </c>
@@ -3826,7 +3897,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -3900,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0</v>
       </c>
@@ -3974,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0</v>
       </c>
@@ -4051,4 +4122,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="25" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples/Book1.xlsx
+++ b/examples/Book1.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\dive\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27133535-BE41-4272-9735-DF88A694B98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mass" sheetId="2" r:id="rId2"/>
     <sheet name="Stiffness" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>P</t>
   </si>
@@ -47,84 +53,15 @@
     <t>y</t>
   </si>
   <si>
-    <t xml:space="preserve">   6.66667e-01   1.66667e-01   1.66667e-01  -9.88792e-17  -1.66667e-01  -1.66667e-01  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.30972e-16   1.66667e-01   8.33333e-02  -1.37477e-16   8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.66667e-01   6.66667e-01   1.66667e-01   1.66667e-01  -9.88792e-17   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.30972e-16  -1.66667e-01   8.33333e-02  -1.37477e-16   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.66667e-01   1.66667e-01   6.66667e-01   1.66667e-01   8.33333e-02  -1.02349e-16   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.13624e-16  -1.66667e-01  -1.66667e-01  -1.09288e-16  -1.66667e-01  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -9.88792e-17   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01  -1.66667e-01  -9.36751e-17  -1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.21431e-16  -8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01  -9.88792e-17   8.33333e-02  -1.66667e-01   6.66667e-01   1.66667e-01   1.66667e-01  -9.36751e-17  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.21431e-16   1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01   8.33333e-02  -1.02349e-16  -1.66667e-01   1.66667e-01   6.66667e-01  -8.33333e-02   1.66667e-01  -9.36751e-17  -8.33333e-02   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01  -1.66667e-01  -1.04083e-16   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01  -1.66667e-01   8.33333e-02  -9.36751e-17   1.66667e-01  -8.33333e-02   6.66667e-01   1.66667e-01  -1.66667e-01  -1.11022e-16  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.45717e-16   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02   1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -9.36751e-17   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.11022e-16  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.45717e-16  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -9.36751e-17  -1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01  -8.33333e-02  -1.24900e-16   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.66667e-01   1.66667e-01   1.66667e-01  -1.45717e-16   1.66667e-01   8.33333e-02  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.30972e-16  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.11022e-16   1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.52656e-16  -8.33333e-02   1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.66667e-01  -1.30972e-16   1.66667e-01   1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.11022e-16  -8.33333e-02  -1.66667e-01   6.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.52656e-16  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   8.33333e-02  -1.66667e-01  -1.13624e-16   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.24900e-16   1.66667e-01  -1.66667e-01   6.66667e-01  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01   1.66667e-01  -1.38778e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.37477e-16   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02   6.66667e-01   1.66667e-01  -1.66667e-01  -1.31839e-16  -1.66667e-01   1.66667e-01  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.52656e-16   1.66667e-01  -8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   8.33333e-02  -1.37477e-16  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.31839e-16  -8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.52656e-16   1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.66667e-01   1.66667e-01  -1.09288e-16   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.66667e-01  -1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01  -8.33333e-02  -1.24900e-16  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.42247e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.21431e-16  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.31839e-16   1.66667e-01  -1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.59595e-16  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.21431e-16  -1.66667e-01   8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.31839e-16  -8.33333e-02  -1.66667e-01   6.66667e-01  -1.66667e-01   1.66667e-01  -1.59595e-16   1.66667e-01   1.66667e-01  -1.66667e-01   8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01   1.66667e-01  -1.04083e-16  -8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02   8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.24900e-16   1.66667e-01  -1.66667e-01   6.66667e-01   8.33333e-02  -1.66667e-01  -1.66533e-16   8.33333e-02  -8.33333e-02  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.45717e-16   8.33333e-02   1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.59595e-16   1.66667e-01   8.33333e-02   6.66667e-01   1.66667e-01   1.66667e-01  -7.63278e-17  -1.66667e-01  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.45717e-16   1.66667e-01   8.33333e-02  -1.66667e-01   8.33333e-02  -1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.59595e-16  -1.66667e-01   1.66667e-01   6.66667e-01   1.66667e-01   1.66667e-01  -7.63278e-17   8.33333e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -8.33333e-02  -8.33333e-02  -1.66667e-01  -8.33333e-02  -1.66667e-01  -1.66667e-01  -1.66667e-01  -1.66667e-01  -1.45717e-16  -1.66667e-01  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.66533e-16   1.66667e-01   1.66667e-01   6.66667e-01   1.66667e-01   8.33333e-02  -5.55112e-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02   8.33333e-02  -1.66667e-01   8.33333e-02   1.66667e-01  -1.52656e-16  -8.33333e-02  -1.66667e-01  -1.52656e-16  -1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01   8.33333e-02  -7.63278e-17   1.66667e-01   1.66667e-01   6.66667e-01  -1.66667e-01  -1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -1.66667e-01  -8.33333e-02  -8.33333e-02  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.52656e-16   1.66667e-01   1.66667e-01  -1.52656e-16  -1.66667e-01   1.66667e-01  -1.66667e-01  -8.33333e-02  -1.66667e-01  -7.63278e-17   8.33333e-02  -1.66667e-01   6.66667e-01   1.66667e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -8.33333e-02  -1.66667e-01   1.66667e-01  -8.33333e-02  -1.66667e-01   1.66667e-01  -1.66667e-01  -1.38778e-16  -8.33333e-02   1.66667e-01  -1.42247e-16  -8.33333e-02   8.33333e-02  -1.66667e-01  -1.66667e-01   8.33333e-02  -5.55112e-17  -1.66667e-01   1.66667e-01   6.66667e-01</t>
+    <t>w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -158,7 +95,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,26 +402,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -492,7 +438,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -500,7 +446,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -509,7 +455,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -518,7 +464,7 @@
         <v>8.3333333333333354E-6</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -526,48 +472,70 @@
         <v>207000000000</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10000000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>10000000*D2*D3</f>
+        <v>100000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <f>1000000*7850*D3*D2</f>
+        <v>78500000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
-        <f>D7*D8^3/(3*D6*D5)</f>
-        <v>-1.9323671497584537E-7</v>
+      <c r="D10" s="1">
+        <f>D9*D1^3/(3*D6*D5)</f>
+        <v>1.9323671497584538</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G9*D1^3/(3*D6*D5)</f>
+        <v>1.9323671497584537E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J9*D1^4/(8*D6*D5)</f>
+        <v>5.6884057971014474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.296296</v>
       </c>
@@ -641,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -715,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -789,7 +757,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.148148</v>
       </c>
@@ -863,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0</v>
       </c>
@@ -937,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1011,7 +979,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -1085,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1159,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1233,7 +1201,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.148148</v>
       </c>
@@ -1307,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1381,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1455,7 +1423,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.148148</v>
       </c>
@@ -1529,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1603,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1677,7 +1645,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -1751,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1825,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1899,7 +1867,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>3.7037E-2</v>
       </c>
@@ -1973,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2047,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2121,7 +2089,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -2195,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2269,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2343,7 +2311,7 @@
         <v>0.296296</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.296296</v>
       </c>
@@ -2417,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0</v>
       </c>
@@ -2491,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0</v>
       </c>
@@ -2565,7 +2533,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.148148</v>
       </c>
@@ -2639,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0</v>
       </c>
@@ -2713,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2787,7 +2755,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -2861,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0</v>
       </c>
@@ -2935,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0</v>
       </c>
@@ -3009,7 +2977,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.148148</v>
       </c>
@@ -3083,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0</v>
       </c>
@@ -3157,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0</v>
       </c>
@@ -3231,7 +3199,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0.148148</v>
       </c>
@@ -3305,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0</v>
       </c>
@@ -3379,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
@@ -3453,7 +3421,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -3527,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0</v>
       </c>
@@ -3601,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0</v>
       </c>
@@ -3675,7 +3643,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>3.7037E-2</v>
       </c>
@@ -3749,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0</v>
       </c>
@@ -3823,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0</v>
       </c>
@@ -3897,7 +3865,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -3971,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0</v>
       </c>
@@ -4045,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0</v>
       </c>
@@ -4125,141 +4093,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="25" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.90625" style="2"/>
+    <col min="2" max="25" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="2"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/examples/Book1.xlsx
+++ b/examples/Book1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\dive\examples\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27133535-BE41-4272-9735-DF88A694B98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mass" sheetId="2" r:id="rId2"/>
     <sheet name="Stiffness" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>P</t>
   </si>
@@ -59,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -402,26 +396,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -430,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -438,7 +432,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -446,7 +440,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -455,7 +449,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -464,7 +458,7 @@
         <v>8.3333333333333354E-6</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -472,31 +466,24 @@
         <v>207000000000</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9">
         <v>10000000</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>10000000*D2*D3</f>
-        <v>100000</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="H9">
         <f>1000000*7850*D3*D2</f>
         <v>78500000</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -504,18 +491,11 @@
         <f>D9*D1^3/(3*D6*D5)</f>
         <v>1.9323671497584538</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
-        <f>G9*D1^3/(3*D6*D5)</f>
-        <v>1.9323671497584537E-2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1">
-        <f>J9*D1^4/(8*D6*D5)</f>
+      <c r="H10" s="1">
+        <f>H9*D1^4/(8*D6*D5)</f>
         <v>5.6884057971014474</v>
       </c>
     </row>
@@ -526,16 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.296296</v>
       </c>
@@ -609,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -683,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -757,7 +737,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.148148</v>
       </c>
@@ -831,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0</v>
       </c>
@@ -905,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -979,7 +959,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -1053,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1127,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1201,7 +1181,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.148148</v>
       </c>
@@ -1275,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1349,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1423,7 +1403,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.148148</v>
       </c>
@@ -1497,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1571,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1645,7 +1625,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -1719,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1793,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1867,7 +1847,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3.7037E-2</v>
       </c>
@@ -1941,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2015,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2089,7 +2069,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -2163,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2237,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2311,7 +2291,7 @@
         <v>0.296296</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>0.296296</v>
       </c>
@@ -2385,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>0</v>
       </c>
@@ -2459,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
@@ -2533,7 +2513,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>0.148148</v>
       </c>
@@ -2607,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0</v>
       </c>
@@ -2681,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2755,7 +2735,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -2829,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
@@ -2903,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0</v>
       </c>
@@ -2977,7 +2957,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>0.148148</v>
       </c>
@@ -3051,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0</v>
       </c>
@@ -3125,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>0</v>
       </c>
@@ -3199,7 +3179,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0.148148</v>
       </c>
@@ -3273,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0</v>
       </c>
@@ -3347,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>0</v>
       </c>
@@ -3421,7 +3401,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -3495,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0</v>
       </c>
@@ -3569,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0</v>
       </c>
@@ -3643,7 +3623,7 @@
         <v>7.4074100000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>3.7037E-2</v>
       </c>
@@ -3717,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>0</v>
       </c>
@@ -3791,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0</v>
       </c>
@@ -3865,7 +3845,7 @@
         <v>0.148148</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>7.4074100000000004E-2</v>
       </c>
@@ -3939,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0</v>
       </c>
@@ -4013,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0</v>
       </c>
@@ -4093,18 +4073,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="2"/>
-    <col min="2" max="25" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="25" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
